--- a/Projeto/ecrã-32x64.xlsx
+++ b/Projeto/ecrã-32x64.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c193140ed3b7c33/IacOD/projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodin\Documents\GitHub\IAC-Project\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="11_017311F03D3863F45F55782AA5DB0E4A68C55485" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F04830A6-780F-48BC-B002-37AA7CC0B743}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE96B06F-B1B5-438C-9CB4-3DB12CEBB9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecrã" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -510,13 +510,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -526,6 +519,15 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,104 +878,104 @@
   </sheetPr>
   <dimension ref="A1:BU36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BQ23" sqref="BQ23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="1.42578125" style="3" customWidth="1"/>
-    <col min="3" max="66" width="3.42578125" style="3" customWidth="1"/>
-    <col min="67" max="67" width="4.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="1.453125" style="3" customWidth="1"/>
+    <col min="3" max="66" width="3.453125" style="3" customWidth="1"/>
+    <col min="67" max="67" width="4.453125" style="2" customWidth="1"/>
     <col min="68" max="68" width="4" style="2" customWidth="1"/>
     <col min="69" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:69" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="27" t="s">
+    <row r="1" spans="1:69" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:69" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27" t="s">
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27" t="s">
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27" t="s">
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27" t="s">
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27" t="s">
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="27"/>
-      <c r="BN2" s="27"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="36"/>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36"/>
     </row>
-    <row r="3" spans="1:69" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" s="14" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="23">
         <v>0</v>
       </c>
@@ -1097,7 +1099,7 @@
       <c r="BO3" s="15"/>
       <c r="BP3" s="15"/>
     </row>
-    <row r="4" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1173,7 @@
       </c>
       <c r="BP4" s="3"/>
     </row>
-    <row r="5" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1247,7 @@
       </c>
       <c r="BP5" s="3"/>
     </row>
-    <row r="6" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1321,7 @@
       </c>
       <c r="BP6" s="3"/>
     </row>
-    <row r="7" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1393,7 +1395,7 @@
       </c>
       <c r="BP7" s="3"/>
     </row>
-    <row r="8" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1469,7 @@
       </c>
       <c r="BP8" s="3"/>
     </row>
-    <row r="9" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1566,7 +1568,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="31"/>
+      <c r="T10" s="28"/>
       <c r="U10" s="17"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1582,7 +1584,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="16"/>
-      <c r="AJ10" s="34"/>
+      <c r="AJ10" s="31"/>
       <c r="AK10" s="16"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -1594,7 +1596,7 @@
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="16"/>
-      <c r="AV10" s="34"/>
+      <c r="AV10" s="31"/>
       <c r="AW10" s="16"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
@@ -1621,7 +1623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1658,9 +1660,9 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="32"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="29"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
@@ -1670,9 +1672,9 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="32"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="29"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
@@ -1695,7 +1697,7 @@
       </c>
       <c r="BP11" s="3"/>
     </row>
-    <row r="12" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1769,7 +1771,7 @@
       </c>
       <c r="BP12" s="3"/>
     </row>
-    <row r="13" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1806,10 +1808,10 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
-      <c r="AI13" s="30"/>
+      <c r="AI13" s="27"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="30"/>
+      <c r="AL13" s="27"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
@@ -1818,10 +1820,10 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
-      <c r="AU13" s="30"/>
+      <c r="AU13" s="27"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
-      <c r="AX13" s="30"/>
+      <c r="AX13" s="27"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
@@ -1843,7 +1845,7 @@
       </c>
       <c r="BP13" s="3"/>
     </row>
-    <row r="14" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
@@ -1865,8 +1867,8 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="31"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="28"/>
       <c r="V14" s="17"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -1917,7 +1919,7 @@
       </c>
       <c r="BP14" s="3"/>
     </row>
-    <row r="15" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1939,7 +1941,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="31"/>
+      <c r="T15" s="28"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
       <c r="W15" s="1"/>
@@ -1954,9 +1956,9 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
       <c r="AL15" s="16"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
@@ -1966,9 +1968,9 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="34"/>
-      <c r="AW15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
       <c r="AX15" s="16"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
@@ -1991,7 +1993,7 @@
       </c>
       <c r="BP15" s="3"/>
     </row>
-    <row r="16" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -2028,10 +2030,10 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="32"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="29"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -2040,10 +2042,10 @@
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="32"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
+      <c r="AX16" s="29"/>
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
@@ -2065,7 +2067,7 @@
       </c>
       <c r="BP16" s="3"/>
     </row>
-    <row r="17" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -2139,7 +2141,7 @@
       </c>
       <c r="BP17" s="3"/>
     </row>
-    <row r="18" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
@@ -2160,11 +2162,11 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="32"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="29"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -2188,7 +2190,7 @@
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
-      <c r="AU18" s="33"/>
+      <c r="AU18" s="30"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
@@ -2213,7 +2215,7 @@
       </c>
       <c r="BP18" s="3"/>
     </row>
-    <row r="19" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -2235,9 +2237,9 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
       <c r="W19" s="17"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -2251,9 +2253,9 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="17"/>
-      <c r="AJ19" s="36"/>
+      <c r="AJ19" s="33"/>
       <c r="AK19" s="16"/>
-      <c r="AL19" s="36"/>
+      <c r="AL19" s="33"/>
       <c r="AM19" s="17"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -2261,11 +2263,11 @@
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
-      <c r="AT19" s="32"/>
+      <c r="AT19" s="29"/>
       <c r="AU19" s="17"/>
-      <c r="AV19" s="32"/>
+      <c r="AV19" s="29"/>
       <c r="AW19" s="17"/>
-      <c r="AX19" s="32"/>
+      <c r="AX19" s="29"/>
       <c r="AY19" s="17"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
@@ -2287,7 +2289,7 @@
       </c>
       <c r="BP19" s="3"/>
     </row>
-    <row r="20" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -2309,7 +2311,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="31"/>
+      <c r="T20" s="28"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
@@ -2335,12 +2337,12 @@
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="35"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="32"/>
       <c r="AV20" s="17"/>
       <c r="AW20" s="16"/>
       <c r="AX20" s="17"/>
-      <c r="AY20" s="32"/>
+      <c r="AY20" s="29"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
@@ -2363,7 +2365,7 @@
       <c r="BQ20" s="4"/>
       <c r="BU20" s="4"/>
     </row>
-    <row r="21" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -2385,7 +2387,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="31"/>
+      <c r="T21" s="28"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -2401,9 +2403,9 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="17"/>
-      <c r="AJ21" s="36"/>
+      <c r="AJ21" s="33"/>
       <c r="AK21" s="16"/>
-      <c r="AL21" s="36"/>
+      <c r="AL21" s="33"/>
       <c r="AM21" s="17"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -2411,12 +2413,12 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
-      <c r="AT21" s="32"/>
+      <c r="AT21" s="29"/>
       <c r="AU21" s="17"/>
       <c r="AV21" s="16"/>
-      <c r="AW21" s="34"/>
+      <c r="AW21" s="31"/>
       <c r="AX21" s="16"/>
-      <c r="AY21" s="30"/>
+      <c r="AY21" s="27"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
@@ -2437,7 +2439,7 @@
       </c>
       <c r="BP21" s="3"/>
     </row>
-    <row r="22" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -2458,11 +2460,11 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="35"/>
+      <c r="S22" s="32"/>
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
-      <c r="W22" s="32"/>
+      <c r="W22" s="29"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -2478,18 +2480,18 @@
       <c r="AJ22" s="17"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="17"/>
-      <c r="AM22" s="32"/>
+      <c r="AM22" s="29"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
-      <c r="AT22" s="32"/>
+      <c r="AT22" s="29"/>
       <c r="AU22" s="16"/>
-      <c r="AV22" s="34"/>
-      <c r="AW22" s="34"/>
-      <c r="AX22" s="34"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+      <c r="AX22" s="31"/>
       <c r="AY22" s="16"/>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -2511,7 +2513,7 @@
       </c>
       <c r="BP22" s="3"/>
     </row>
-    <row r="23" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -2550,7 +2552,7 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
-      <c r="AK23" s="38"/>
+      <c r="AK23" s="35"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
@@ -2559,12 +2561,12 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="29"/>
       <c r="AV23" s="16"/>
-      <c r="AW23" s="34"/>
+      <c r="AW23" s="31"/>
       <c r="AX23" s="16"/>
-      <c r="AY23" s="32"/>
+      <c r="AY23" s="29"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
@@ -2585,7 +2587,7 @@
       </c>
       <c r="BP23" s="3"/>
     </row>
-    <row r="24" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -2659,7 +2661,7 @@
       </c>
       <c r="BP24" s="3"/>
     </row>
-    <row r="25" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -2698,7 +2700,7 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
-      <c r="AK25" s="38"/>
+      <c r="AK25" s="35"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
@@ -2733,7 +2735,7 @@
       </c>
       <c r="BP25" s="3"/>
     </row>
-    <row r="26" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -2807,7 +2809,7 @@
       </c>
       <c r="BP26" s="3"/>
     </row>
-    <row r="27" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
@@ -2828,11 +2830,11 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="32"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="29"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -2846,7 +2848,7 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
-      <c r="AK27" s="38"/>
+      <c r="AK27" s="35"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
@@ -2857,9 +2859,9 @@
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="17"/>
-      <c r="AV27" s="32"/>
+      <c r="AV27" s="29"/>
       <c r="AW27" s="17"/>
-      <c r="AX27" s="32"/>
+      <c r="AX27" s="29"/>
       <c r="AY27" s="17"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
@@ -2881,7 +2883,7 @@
       </c>
       <c r="BP27" s="3"/>
     </row>
-    <row r="28" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -2903,9 +2905,9 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
       <c r="W28" s="17"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -2930,11 +2932,11 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
-      <c r="AU28" s="35"/>
+      <c r="AU28" s="32"/>
       <c r="AV28" s="17"/>
       <c r="AW28" s="16"/>
       <c r="AX28" s="17"/>
-      <c r="AY28" s="32"/>
+      <c r="AY28" s="29"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
@@ -2955,7 +2957,7 @@
       </c>
       <c r="BP28" s="3"/>
     </row>
-    <row r="29" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
@@ -2977,7 +2979,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="17"/>
-      <c r="T29" s="31"/>
+      <c r="T29" s="28"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
@@ -2994,7 +2996,7 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
-      <c r="AK29" s="38"/>
+      <c r="AK29" s="35"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="5"/>
@@ -3006,9 +3008,9 @@
       <c r="AT29" s="1"/>
       <c r="AU29" s="17"/>
       <c r="AV29" s="16"/>
-      <c r="AW29" s="34"/>
+      <c r="AW29" s="31"/>
       <c r="AX29" s="16"/>
-      <c r="AY29" s="30"/>
+      <c r="AY29" s="27"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
@@ -3029,7 +3031,7 @@
       </c>
       <c r="BP29" s="3"/>
     </row>
-    <row r="30" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -3051,7 +3053,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="31"/>
+      <c r="T30" s="28"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
@@ -3079,9 +3081,9 @@
       <c r="AS30" s="7"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="16"/>
-      <c r="AV30" s="34"/>
-      <c r="AW30" s="34"/>
-      <c r="AX30" s="34"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="31"/>
       <c r="AY30" s="16"/>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
@@ -3103,7 +3105,7 @@
       </c>
       <c r="BP30" s="3"/>
     </row>
-    <row r="31" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
@@ -3124,11 +3126,11 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="35"/>
+      <c r="S31" s="32"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
-      <c r="W31" s="32"/>
+      <c r="W31" s="29"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -3142,7 +3144,7 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
-      <c r="AK31" s="32"/>
+      <c r="AK31" s="29"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
@@ -3152,11 +3154,11 @@
       <c r="AR31" s="1"/>
       <c r="AS31" s="7"/>
       <c r="AT31" s="1"/>
-      <c r="AU31" s="32"/>
+      <c r="AU31" s="29"/>
       <c r="AV31" s="16"/>
-      <c r="AW31" s="34"/>
+      <c r="AW31" s="31"/>
       <c r="AX31" s="16"/>
-      <c r="AY31" s="32"/>
+      <c r="AY31" s="29"/>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
@@ -3177,7 +3179,7 @@
       </c>
       <c r="BP31" s="3"/>
     </row>
-    <row r="32" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -3251,7 +3253,7 @@
       </c>
       <c r="BP32" s="3"/>
     </row>
-    <row r="33" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>37</v>
       </c>
@@ -3288,11 +3290,11 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="18"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="18"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="29"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
@@ -3325,7 +3327,7 @@
       </c>
       <c r="BP33" s="3"/>
     </row>
-    <row r="34" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>38</v>
       </c>
@@ -3364,7 +3366,7 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="18"/>
       <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
+      <c r="AK34" s="40"/>
       <c r="AL34" s="18"/>
       <c r="AM34" s="18"/>
       <c r="AN34" s="1"/>
@@ -3399,7 +3401,7 @@
       </c>
       <c r="BP34" s="3"/>
     </row>
-    <row r="35" spans="1:68" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:68" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="6" t="s">
         <v>39</v>
       </c>
@@ -3436,11 +3438,11 @@
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
       <c r="AH35" s="11"/>
-      <c r="AI35" s="11"/>
-      <c r="AJ35" s="29"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="29"/>
-      <c r="AM35" s="11"/>
+      <c r="AI35" s="38"/>
+      <c r="AJ35" s="38"/>
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="38"/>
+      <c r="AM35" s="38"/>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
       <c r="AP35" s="11"/>
@@ -3473,87 +3475,87 @@
       </c>
       <c r="BP35" s="3"/>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="C36" s="28" t="s">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="C36" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28" t="s">
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28" t="s">
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28" t="s">
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28" t="s">
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="28"/>
-      <c r="AN36" s="28"/>
-      <c r="AO36" s="28"/>
-      <c r="AP36" s="28"/>
-      <c r="AQ36" s="28" t="s">
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AR36" s="28"/>
-      <c r="AS36" s="28"/>
-      <c r="AT36" s="28"/>
-      <c r="AU36" s="28"/>
-      <c r="AV36" s="28"/>
-      <c r="AW36" s="28"/>
-      <c r="AX36" s="28"/>
-      <c r="AY36" s="28" t="s">
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AZ36" s="28"/>
-      <c r="BA36" s="28"/>
-      <c r="BB36" s="28"/>
-      <c r="BC36" s="28"/>
-      <c r="BD36" s="28"/>
-      <c r="BE36" s="28"/>
-      <c r="BF36" s="28"/>
-      <c r="BG36" s="28" t="s">
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="BH36" s="28"/>
-      <c r="BI36" s="28"/>
-      <c r="BJ36" s="28"/>
-      <c r="BK36" s="28"/>
-      <c r="BL36" s="28"/>
-      <c r="BM36" s="28"/>
-      <c r="BN36" s="28"/>
+      <c r="BH36" s="37"/>
+      <c r="BI36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BN36" s="37"/>
       <c r="BO36" s="3"/>
       <c r="BP36" s="3"/>
     </row>
@@ -3587,7 +3589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3599,7 +3601,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
